--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1844.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1844.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8768750512033614</v>
+        <v>1.467318296432495</v>
       </c>
       <c r="B1">
-        <v>0.9100848697226374</v>
+        <v>3.312880516052246</v>
       </c>
       <c r="C1">
-        <v>0.982052337633627</v>
+        <v>4.190833568572998</v>
       </c>
       <c r="D1">
-        <v>1.406457457037814</v>
+        <v>2.358716726303101</v>
       </c>
       <c r="E1">
-        <v>2.919086438187072</v>
+        <v>0.7248721122741699</v>
       </c>
     </row>
   </sheetData>
